--- a/public/data/thai_interview_name_list.xlsx
+++ b/public/data/thai_interview_name_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/web/awl_sys/public/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zinmintun/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815FCBC5-5846-114A-9C81-7C55F1117B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477A13F9-68D6-484F-BA96-DBC621F4FC67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{334697A9-1354-7947-8EA5-6C07EBFA24D6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{036B47F5-906D-F84A-B0B8-D67F1384DF04}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>no</t>
   </si>
@@ -44,45 +44,9 @@
     <t>gender</t>
   </si>
   <si>
-    <t>nrc</t>
-  </si>
-  <si>
     <t>father_name</t>
   </si>
   <si>
-    <t>mother_name</t>
-  </si>
-  <si>
-    <t>qualification</t>
-  </si>
-  <si>
-    <t>date_of_birth</t>
-  </si>
-  <si>
-    <t>native_town</t>
-  </si>
-  <si>
-    <t>region</t>
-  </si>
-  <si>
-    <t>come_from_to_interview</t>
-  </si>
-  <si>
-    <t>expiry_date</t>
-  </si>
-  <si>
-    <t>slip_date</t>
-  </si>
-  <si>
-    <t>passport_issue_date</t>
-  </si>
-  <si>
-    <t>medical_fail</t>
-  </si>
-  <si>
-    <t>phone_number</t>
-  </si>
-  <si>
     <t>passport_number</t>
   </si>
   <si>
@@ -92,74 +56,59 @@
     <t>fail_or_cancel</t>
   </si>
   <si>
-    <t>Pyae Pyae Phyo</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>14/WAKAMA(N)318385</t>
-  </si>
-  <si>
-    <t>Kyaw Win</t>
-  </si>
-  <si>
-    <t>Myint Myint</t>
-  </si>
-  <si>
-    <t>30.10.2003</t>
-  </si>
-  <si>
-    <t>Wakema</t>
-  </si>
-  <si>
-    <t>Ayarwaddy</t>
-  </si>
-  <si>
-    <t>Nail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X-Ray Fail </t>
-  </si>
-  <si>
-    <t>097767029109</t>
-  </si>
-  <si>
-    <t>Cherry Lwin</t>
-  </si>
-  <si>
-    <t>14/WaKAMA(N)318378</t>
-  </si>
-  <si>
-    <t>Kyaw Moe Khaing</t>
-  </si>
-  <si>
-    <t>Htay Than</t>
-  </si>
-  <si>
-    <t>7.5.2003</t>
-  </si>
-  <si>
-    <t>20.2.2027</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>21.2.2022</t>
-  </si>
-  <si>
-    <t>09776731889</t>
-  </si>
-  <si>
-    <t>MF681124</t>
+    <t>﻿age</t>
+  </si>
+  <si>
+    <t>﻿qualification</t>
+  </si>
+  <si>
+    <t>﻿nrc</t>
+  </si>
+  <si>
+    <t>﻿medical</t>
+  </si>
+  <si>
+    <t>﻿region</t>
+  </si>
+  <si>
+    <t>﻿physical_and_blindness_test</t>
+  </si>
+  <si>
+    <t>﻿native_town</t>
+  </si>
+  <si>
+    <t>﻿come_from_to_interview</t>
+  </si>
+  <si>
+    <t>﻿passport_issue_date</t>
+  </si>
+  <si>
+    <t>﻿passport_expire_date</t>
+  </si>
+  <si>
+    <t>﻿passport_slip_date</t>
+  </si>
+  <si>
+    <t>﻿phone_number</t>
+  </si>
+  <si>
+    <t>﻿covid_vaccine_first_dose</t>
+  </si>
+  <si>
+    <t>﻿covid_vaccine_second_dose</t>
+  </si>
+  <si>
+    <t>﻿date_of_birth</t>
+  </si>
+  <si>
+    <t>contract_no</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -168,37 +117,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Menlo"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -255,57 +192,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -620,181 +525,85 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A20CCC4E-7D26-9449-A5D6-C3C0522A7615}">
-  <dimension ref="A1:S3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F8EDD4-B1BC-B740-B854-9B6A6CC839D9}">
+  <dimension ref="A1:W1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="21.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="34.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:23" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="I1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="K1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="U1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="9">
-        <v>10</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" s="11"/>
-      <c r="S2" s="12"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="13">
-        <v>2</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="16">
-        <v>10</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="N3" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="15"/>
-      <c r="P3" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q3" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="R3" s="18"/>
-      <c r="S3" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/data/thai_interview_name_list.xlsx
+++ b/public/data/thai_interview_name_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zinmintun/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/web/awl_sys/public/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477A13F9-68D6-484F-BA96-DBC621F4FC67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADBF63CB-C8E6-104E-87C6-871DD01549F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{036B47F5-906D-F84A-B0B8-D67F1384DF04}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{036B47F5-906D-F84A-B0B8-D67F1384DF04}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>no</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>contract_no</t>
+  </si>
+  <si>
+    <t>﻿departure_date</t>
   </si>
 </sst>
 </file>
@@ -526,15 +529,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F8EDD4-B1BC-B740-B854-9B6A6CC839D9}">
-  <dimension ref="A1:W1"/>
+  <dimension ref="A1:X1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="137" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="34.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:23" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -593,15 +596,18 @@
         <v>4</v>
       </c>
       <c r="T1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
